--- a/SE202526/Management/Sprint1/Gantt_Chart_Sprint1.xlsx
+++ b/SE202526/Management/Sprint1/Gantt_Chart_Sprint1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AA6536-6850-4033-B33C-9A7FDAC1D07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8EE5A57-812B-4DB1-B36A-9A3DB829BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,7 +1019,7 @@
   <dimension ref="B1:BP30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1390,16 +1390,16 @@
         <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -1413,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>

--- a/SE202526/Management/Sprint1/Gantt_Chart_Sprint1.xlsx
+++ b/SE202526/Management/Sprint1/Gantt_Chart_Sprint1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8EE5A57-812B-4DB1-B36A-9A3DB829BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076DA43B-EFE2-42AA-9BB0-0FE62C428E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Project Planner</t>
   </si>
@@ -190,16 +190,10 @@
     <t>M3</t>
   </si>
   <si>
-    <t>Dinis, Miguel, Filipe</t>
-  </si>
-  <si>
-    <t>Leandro, Luís, Francisco</t>
-  </si>
-  <si>
-    <t>Test gameplay</t>
-  </si>
-  <si>
-    <t>Analyze code</t>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Play the  game</t>
   </si>
 </sst>
 </file>
@@ -1019,14 +1013,14 @@
   <dimension ref="B1:BP30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.5546875" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="2" customWidth="1"/>
     <col min="4" max="7" width="11.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" style="4" customWidth="1"/>
     <col min="9" max="28" width="3.21875" style="1"/>
@@ -1387,46 +1381,30 @@
         <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7">
         <v>4</v>
       </c>
       <c r="G5" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7">
-        <v>6</v>
-      </c>
-      <c r="F6" s="7">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
